--- a/GrammarOfGraphics/birth_death_rate/data.xlsx
+++ b/GrammarOfGraphics/birth_death_rate/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="23760" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="6040" yWindow="520" windowWidth="23760" windowHeight="15720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="812">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -613,9 +606,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -976,9 +966,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
     <t>Republic of Moldova</t>
   </si>
   <si>
@@ -1183,9 +1170,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>United Kingdom of Great Britain and Northern Ireland</t>
-  </si>
-  <si>
     <t>12.2</t>
   </si>
   <si>
@@ -1195,9 +1179,6 @@
     <t>39.2</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -1241,13 +1222,1246 @@
   </si>
   <si>
     <t>9.8</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Population (in thousands) total</t>
+  </si>
+  <si>
+    <t>Population proportion under 15 (%)</t>
+  </si>
+  <si>
+    <t>Population proportion over 60 (%)</t>
+  </si>
+  <si>
+    <t>Population median age (years)</t>
+  </si>
+  <si>
+    <t>Population living in urban areas (%)</t>
+  </si>
+  <si>
+    <t>30552</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3173</t>
+  </si>
+  <si>
+    <t>32.9</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>39208</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>21472</t>
+  </si>
+  <si>
+    <t>47.4</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>41446</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>23343</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>8495</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>9413</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>156595</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>9357</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>11104</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>41.6</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>10323</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>10671</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>3829</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>39.5</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>200362</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>7223</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>16935</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>10163</t>
+  </si>
+  <si>
+    <t>44.4</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>20316</t>
+  </si>
+  <si>
+    <t>41.3</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>15135</t>
+  </si>
+  <si>
+    <t>22254</t>
+  </si>
+  <si>
+    <t>42.9</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>35182</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>12825</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>17620</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>1393337</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>48321</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>4448</t>
+  </si>
+  <si>
+    <t>42.4</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>4872</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>4290</t>
+  </si>
+  <si>
+    <t>42.6</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>11266</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>10702</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>24895</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>67514</t>
+  </si>
+  <si>
+    <t>44.9</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>5619</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>41.1</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>10404</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>15738</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>82056</t>
+  </si>
+  <si>
+    <t>6340</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>6333</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>94101</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>5426</t>
+  </si>
+  <si>
+    <t>42.3</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>64291</t>
+  </si>
+  <si>
+    <t>40.6</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>4341</t>
+  </si>
+  <si>
+    <t>82727</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>25905</t>
+  </si>
+  <si>
+    <t>11128</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>15468</t>
+  </si>
+  <si>
+    <t>40.4</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>11745</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>41.4</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>10317</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>8098</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>9955</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>1252140</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>249866</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>77447</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>33765</t>
+  </si>
+  <si>
+    <t>4627</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>7733</t>
+  </si>
+  <si>
+    <t>60990</t>
+  </si>
+  <si>
+    <t>44.3</t>
+  </si>
+  <si>
+    <t>2784</t>
+  </si>
+  <si>
+    <t>127144</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>7274</t>
+  </si>
+  <si>
+    <t>16441</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>44354</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>3369</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>5548</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>6770</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>4822</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2074</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>4294</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>22925</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>16363</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>29717</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>15302</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>3890</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>122332</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2839</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>33008</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>25834</t>
+  </si>
+  <si>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>53259</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>27797</t>
+  </si>
+  <si>
+    <t>16759</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>4506</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>6080</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>17831</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>173615</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>5043</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>3632</t>
+  </si>
+  <si>
+    <t>182143</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>3864</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>7321</t>
+  </si>
+  <si>
+    <t>6802</t>
+  </si>
+  <si>
+    <t>30376</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>98394</t>
+  </si>
+  <si>
+    <t>38217</t>
+  </si>
+  <si>
+    <t>10608</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2169</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>49263</t>
+  </si>
+  <si>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>3487</t>
+  </si>
+  <si>
+    <t>21699</t>
+  </si>
+  <si>
+    <t>142834</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>11777</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>28829</t>
+  </si>
+  <si>
+    <t>14133</t>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>9511</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>6092</t>
+  </si>
+  <si>
+    <t>5412</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>5450</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>2072</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>10496</t>
+  </si>
+  <si>
+    <t>52776</t>
+  </si>
+  <si>
+    <t>11296</t>
+  </si>
+  <si>
+    <t>46927</t>
+  </si>
+  <si>
+    <t>21273</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>37964</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>9571</t>
+  </si>
+  <si>
+    <t>8078</t>
+  </si>
+  <si>
+    <t>21898</t>
+  </si>
+  <si>
+    <t>8208</t>
+  </si>
+  <si>
+    <t>67010</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>6817</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>10997</t>
+  </si>
+  <si>
+    <t>74933</t>
+  </si>
+  <si>
+    <t>5240</t>
+  </si>
+  <si>
+    <t>37579</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>45239</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>9346</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>63136</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>49253</t>
+  </si>
+  <si>
+    <t>44.8</t>
+  </si>
+  <si>
+    <t>320051</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>3407</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>28934</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>30405</t>
+  </si>
+  <si>
+    <t>91680</t>
+  </si>
+  <si>
+    <t>24407</t>
+  </si>
+  <si>
+    <t>14539</t>
+  </si>
+  <si>
+    <t>14150</t>
+  </si>
+  <si>
+    <t>39.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1273,11 +2487,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1287,7 +2496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1317,6 +2526,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1334,11 +2552,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1353,6 +2571,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1689,17 +2916,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="66" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="66" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="66" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1708,17 +2938,47 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14" thickBot="1">
-      <c r="A2" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14" thickBot="1">
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" thickBot="1">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1728,8 +2988,23 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" thickBot="1">
+      <c r="D3" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1739,8 +3014,23 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" thickBot="1">
+      <c r="D4" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1750,8 +3040,23 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" thickBot="1">
+      <c r="D5" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1761,8 +3066,23 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" thickBot="1">
+      <c r="D6" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1772,8 +3092,23 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="40" thickBot="1">
+      <c r="D7" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1783,8 +3118,23 @@
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" thickBot="1">
+      <c r="D8" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1794,8 +3144,23 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14" thickBot="1">
+      <c r="D9" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1805,8 +3170,23 @@
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14" thickBot="1">
+      <c r="D10" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1816,8 +3196,23 @@
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14" thickBot="1">
+      <c r="D11" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1827,8 +3222,23 @@
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" thickBot="1">
+      <c r="D12" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1838,8 +3248,23 @@
       <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14" thickBot="1">
+      <c r="D13" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,8 +3274,23 @@
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14" thickBot="1">
+      <c r="D14" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1860,8 +3300,23 @@
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" thickBot="1">
+      <c r="D15" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1871,8 +3326,23 @@
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14" thickBot="1">
+      <c r="D16" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +3352,23 @@
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14" thickBot="1">
+      <c r="D17" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1893,8 +3378,23 @@
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14" thickBot="1">
+      <c r="D18" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1904,8 +3404,23 @@
       <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14" thickBot="1">
+      <c r="D19" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1915,8 +3430,23 @@
       <c r="C20" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14" thickBot="1">
+      <c r="D20" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1926,8 +3456,23 @@
       <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14" thickBot="1">
+      <c r="D21" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1937,8 +3482,23 @@
       <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="53" thickBot="1">
+      <c r="D22" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1948,8 +3508,23 @@
       <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="53" thickBot="1">
+      <c r="D23" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1959,8 +3534,23 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14" thickBot="1">
+      <c r="D24" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1970,8 +3560,23 @@
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14" thickBot="1">
+      <c r="D25" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -1981,8 +3586,23 @@
       <c r="C26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="40" thickBot="1">
+      <c r="D26" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1992,8 +3612,23 @@
       <c r="C27" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14" thickBot="1">
+      <c r="D27" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -2003,8 +3638,23 @@
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="27" thickBot="1">
+      <c r="D28" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2014,8 +3664,23 @@
       <c r="C29" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14" thickBot="1">
+      <c r="D29" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2025,8 +3690,23 @@
       <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="27" thickBot="1">
+      <c r="D30" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -2036,8 +3716,23 @@
       <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="27" thickBot="1">
+      <c r="D31" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -2047,8 +3742,23 @@
       <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14" thickBot="1">
+      <c r="D32" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
@@ -2058,8 +3768,23 @@
       <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="14" thickBot="1">
+      <c r="D33" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -2069,8 +3794,23 @@
       <c r="C34" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14" thickBot="1">
+      <c r="D34" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -2080,8 +3820,23 @@
       <c r="C35" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="40" thickBot="1">
+      <c r="D35" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -2091,8 +3846,23 @@
       <c r="C36" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14" thickBot="1">
+      <c r="D36" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -2102,8 +3872,23 @@
       <c r="C37" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14" thickBot="1">
+      <c r="D37" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -2113,8 +3898,23 @@
       <c r="C38" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14" thickBot="1">
+      <c r="D38" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -2124,8 +3924,23 @@
       <c r="C39" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="14" thickBot="1">
+      <c r="D39" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -2135,8 +3950,23 @@
       <c r="C40" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="14" thickBot="1">
+      <c r="D40" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
@@ -2146,8 +3976,23 @@
       <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14" thickBot="1">
+      <c r="D41" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -2157,8 +4002,23 @@
       <c r="C42" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="27" thickBot="1">
+      <c r="D42" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -2168,8 +4028,23 @@
       <c r="C43" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14" thickBot="1">
+      <c r="D43" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -2179,8 +4054,23 @@
       <c r="C44" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="14" thickBot="1">
+      <c r="D44" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>116</v>
       </c>
@@ -2190,8 +4080,23 @@
       <c r="C45" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="14" thickBot="1">
+      <c r="D45" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
@@ -2201,8 +4106,23 @@
       <c r="C46" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="14" thickBot="1">
+      <c r="D46" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -2212,8 +4132,23 @@
       <c r="C47" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="27" thickBot="1">
+      <c r="D47" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
@@ -2223,8 +4158,23 @@
       <c r="C48" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="53" thickBot="1">
+      <c r="D48" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -2234,8 +4184,23 @@
       <c r="C49" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="53" thickBot="1">
+      <c r="D49" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
@@ -2245,8 +4210,23 @@
       <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14" thickBot="1">
+      <c r="D50" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -2256,8 +4236,23 @@
       <c r="C51" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14" thickBot="1">
+      <c r="D51" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
@@ -2267,8 +4262,23 @@
       <c r="C52" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14" thickBot="1">
+      <c r="D52" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -2278,8 +4288,23 @@
       <c r="C53" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="27" thickBot="1">
+      <c r="D53" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -2289,8 +4314,23 @@
       <c r="C54" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14" thickBot="1">
+      <c r="D54" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
@@ -2300,8 +4340,23 @@
       <c r="C55" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="14" thickBot="1">
+      <c r="D55" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -2311,8 +4366,23 @@
       <c r="C56" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="27" thickBot="1">
+      <c r="D56" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>142</v>
       </c>
@@ -2322,8 +4392,23 @@
       <c r="C57" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="27" thickBot="1">
+      <c r="D57" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
@@ -2333,8 +4418,23 @@
       <c r="C58" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="14" thickBot="1">
+      <c r="D58" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
@@ -2344,8 +4444,23 @@
       <c r="C59" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="14" thickBot="1">
+      <c r="D59" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>148</v>
       </c>
@@ -2355,8 +4470,23 @@
       <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="14" thickBot="1">
+      <c r="D60" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>150</v>
       </c>
@@ -2366,8 +4496,23 @@
       <c r="C61" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14" thickBot="1">
+      <c r="D61" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>152</v>
       </c>
@@ -2377,8 +4522,23 @@
       <c r="C62" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14" thickBot="1">
+      <c r="D62" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
@@ -2388,8 +4548,23 @@
       <c r="C63" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="14" thickBot="1">
+      <c r="D63" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>157</v>
       </c>
@@ -2399,8 +4574,23 @@
       <c r="C64" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="14" thickBot="1">
+      <c r="D64" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>160</v>
       </c>
@@ -2410,8 +4600,23 @@
       <c r="C65" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="14" thickBot="1">
+      <c r="D65" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>162</v>
       </c>
@@ -2421,8 +4626,23 @@
       <c r="C66" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="14" thickBot="1">
+      <c r="D66" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -2432,8 +4652,23 @@
       <c r="C67" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="14" thickBot="1">
+      <c r="D67" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>164</v>
       </c>
@@ -2443,8 +4678,23 @@
       <c r="C68" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="14" thickBot="1">
+      <c r="D68" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>166</v>
       </c>
@@ -2454,8 +4704,23 @@
       <c r="C69" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="14" thickBot="1">
+      <c r="D69" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
@@ -2465,8 +4730,23 @@
       <c r="C70" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="14" thickBot="1">
+      <c r="D70" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
@@ -2476,8 +4756,23 @@
       <c r="C71" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="14" thickBot="1">
+      <c r="D71" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
@@ -2487,8 +4782,23 @@
       <c r="C72" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="14" thickBot="1">
+      <c r="D72" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14" thickBot="1">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
@@ -2498,8 +4808,23 @@
       <c r="C73" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="27" thickBot="1">
+      <c r="D73" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
@@ -2509,8 +4834,23 @@
       <c r="C74" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="14" thickBot="1">
+      <c r="D74" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14" thickBot="1">
       <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
@@ -2520,8 +4860,23 @@
       <c r="C75" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="14" thickBot="1">
+      <c r="D75" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>182</v>
       </c>
@@ -2531,8 +4886,23 @@
       <c r="C76" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="14" thickBot="1">
+      <c r="D76" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>185</v>
       </c>
@@ -2542,8 +4912,23 @@
       <c r="C77" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="14" thickBot="1">
+      <c r="D77" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>188</v>
       </c>
@@ -2553,8 +4938,23 @@
       <c r="C78" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14" thickBot="1">
+      <c r="D78" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>190</v>
       </c>
@@ -2564,8 +4964,23 @@
       <c r="C79" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="14" thickBot="1">
+      <c r="D79" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>193</v>
       </c>
@@ -2575,8 +4990,23 @@
       <c r="C80" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="14" thickBot="1">
+      <c r="D80" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>194</v>
       </c>
@@ -2586,54 +5016,129 @@
       <c r="C81" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="53" thickBot="1">
-      <c r="A82" s="1" t="s">
-        <v>195</v>
+      <c r="D81" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14" thickBot="1">
+      <c r="A83" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="14" thickBot="1">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14" thickBot="1">
+      <c r="A84" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="14" thickBot="1">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="14" thickBot="1">
+      <c r="D84" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14" thickBot="1">
+        <v>195</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>126</v>
@@ -2641,21 +5146,51 @@
       <c r="C86" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="14" thickBot="1">
+      <c r="D86" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14" thickBot="1">
       <c r="A87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14" thickBot="1">
+      <c r="A88" s="1" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14" thickBot="1">
-      <c r="A88" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>15</v>
@@ -2663,87 +5198,207 @@
       <c r="C88" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="14" thickBot="1">
+      <c r="D88" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" thickBot="1">
       <c r="A89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14" thickBot="1">
+      <c r="A90" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="27" thickBot="1">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="14" thickBot="1">
+      <c r="D90" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14" thickBot="1">
       <c r="A91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14" thickBot="1">
+      <c r="A92" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="14" thickBot="1">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="14" thickBot="1">
+      <c r="D92" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14" thickBot="1">
       <c r="A93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14" thickBot="1">
+      <c r="A94" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="27" thickBot="1">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="53" thickBot="1">
+      <c r="D94" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="14" thickBot="1">
       <c r="A95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14" thickBot="1">
+      <c r="A96" s="1" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14" thickBot="1">
-      <c r="A96" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>48</v>
@@ -2751,197 +5406,467 @@
       <c r="C96" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="14" thickBot="1">
+      <c r="D96" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14" thickBot="1">
       <c r="A97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="14" thickBot="1">
+      <c r="D97" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14" thickBot="1">
       <c r="A98" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14" thickBot="1">
+      <c r="A99" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="14" thickBot="1">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14" thickBot="1">
+      <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="14" thickBot="1">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="14" thickBot="1">
+      <c r="D100" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14" thickBot="1">
       <c r="A101" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14" thickBot="1">
+      <c r="A102" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="27" thickBot="1">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="27" thickBot="1">
+      <c r="D102" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="14" thickBot="1">
       <c r="A103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="14" thickBot="1">
+      <c r="D103" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14" thickBot="1">
       <c r="A104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="14" thickBot="1">
+      <c r="D104" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14" thickBot="1">
       <c r="A105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="14" thickBot="1">
+      <c r="D105" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="14" thickBot="1">
       <c r="A106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="14" thickBot="1">
+      <c r="A107" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="14" thickBot="1">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="14" thickBot="1">
+      <c r="D107" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14" thickBot="1">
       <c r="A108" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14" thickBot="1">
+      <c r="A109" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="27" thickBot="1">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="14" thickBot="1">
+      <c r="D109" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14" thickBot="1">
       <c r="A110" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14" thickBot="1">
+      <c r="A111" s="1" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14" thickBot="1">
-      <c r="A111" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14" thickBot="1">
+      <c r="A112" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="14" thickBot="1">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="40" thickBot="1">
+      <c r="D112" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14" thickBot="1">
       <c r="A113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="14" thickBot="1">
+      <c r="D113" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14" thickBot="1">
       <c r="A114" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -2949,197 +5874,467 @@
       <c r="C114" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="14" thickBot="1">
+      <c r="D114" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14" thickBot="1">
       <c r="A115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C115" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14" thickBot="1">
+      <c r="A116" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="27" thickBot="1">
-      <c r="A116" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="B116" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="14" thickBot="1">
+      <c r="D116" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="27" thickBot="1">
+      <c r="D117" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14" thickBot="1">
       <c r="A118" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14" thickBot="1">
+      <c r="A119" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="14" thickBot="1">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="14" thickBot="1">
+      <c r="D119" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14" thickBot="1">
       <c r="A120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="14" thickBot="1">
+      <c r="D120" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14" thickBot="1">
       <c r="A121" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14" thickBot="1">
+      <c r="A122" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="14" thickBot="1">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="27" thickBot="1">
+      <c r="D122" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14" thickBot="1">
       <c r="A123" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14" thickBot="1">
+      <c r="A124" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="27" thickBot="1">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="14" thickBot="1">
+      <c r="D124" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="14" thickBot="1">
       <c r="A125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="14" thickBot="1">
+      <c r="A126" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="14" thickBot="1">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="D126" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14" thickBot="1">
+      <c r="A127" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="14" thickBot="1">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="D127" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14" thickBot="1">
+      <c r="A128" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="14" thickBot="1">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="14" thickBot="1">
+      <c r="D128" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14" thickBot="1">
       <c r="A129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="14" thickBot="1">
+      <c r="D129" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="14" thickBot="1">
       <c r="A130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="D130" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="14" thickBot="1">
+      <c r="A131" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="14" thickBot="1">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="D131" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="14" thickBot="1">
+      <c r="A132" s="1" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="14" thickBot="1">
-      <c r="A132" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>149</v>
@@ -3147,65 +6342,155 @@
       <c r="C132" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="14" thickBot="1">
+      <c r="D132" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="14" thickBot="1">
       <c r="A133" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="40" thickBot="1">
+      <c r="D133" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14" thickBot="1">
       <c r="A134" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="14" thickBot="1">
+      <c r="D134" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="14" thickBot="1">
       <c r="A135" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="14" thickBot="1">
+      <c r="A136" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="14" thickBot="1">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="27" thickBot="1">
+      <c r="D136" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="14" thickBot="1">
       <c r="A137" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="14" thickBot="1">
+      <c r="D137" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14" thickBot="1">
       <c r="A138" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>89</v>
@@ -3213,32 +6498,77 @@
       <c r="C138" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="14" thickBot="1">
+      <c r="D138" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="14" thickBot="1">
       <c r="A139" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14" thickBot="1">
+      <c r="A140" s="1" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="14" thickBot="1">
-      <c r="A140" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="27" thickBot="1">
-      <c r="A141" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>58</v>
@@ -3246,43 +6576,103 @@
       <c r="C141" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="40" thickBot="1">
+      <c r="D141" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="14" thickBot="1">
       <c r="A142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="14" thickBot="1">
+      <c r="A143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="14" thickBot="1">
-      <c r="A143" s="1" t="s">
+      <c r="C143" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14" thickBot="1">
+      <c r="A144" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="27" thickBot="1">
-      <c r="A144" s="1" t="s">
+      <c r="D144" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14" thickBot="1">
+      <c r="A145" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="14" thickBot="1">
-      <c r="A145" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>106</v>
@@ -3290,120 +6680,285 @@
       <c r="C145" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="27" thickBot="1">
+      <c r="D145" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14" thickBot="1">
       <c r="A146" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="27" thickBot="1">
+      <c r="D146" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14" thickBot="1">
       <c r="A147" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="66" thickBot="1">
+      <c r="D147" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14" thickBot="1">
       <c r="A148" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="14" thickBot="1">
+      <c r="D148" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14" thickBot="1">
       <c r="A149" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="27" thickBot="1">
+      <c r="D149" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="14" thickBot="1">
       <c r="A150" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="40" thickBot="1">
+        <v>285</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="14" thickBot="1">
       <c r="A151" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="27" thickBot="1">
+      <c r="D151" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="14" thickBot="1">
       <c r="A152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="14" thickBot="1">
+      <c r="A153" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C152" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="14" thickBot="1">
-      <c r="A153" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="14" thickBot="1">
+      <c r="D153" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="14" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="14" thickBot="1">
+        <v>288</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="14" thickBot="1">
       <c r="A155" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="14" thickBot="1">
+      <c r="A156" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="27" thickBot="1">
-      <c r="A156" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>82</v>
@@ -3411,10 +6966,25 @@
       <c r="C156" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="14" thickBot="1">
+      <c r="D156" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="14" thickBot="1">
       <c r="A157" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>52</v>
@@ -3422,208 +6992,493 @@
       <c r="C157" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="14" thickBot="1">
+      <c r="D157" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="14" thickBot="1">
       <c r="A158" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="14" thickBot="1">
+      <c r="D158" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="14" thickBot="1">
       <c r="A159" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="27" thickBot="1">
+        <v>312</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="14" thickBot="1">
       <c r="A160" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="14" thickBot="1">
+      <c r="D160" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="14" thickBot="1">
       <c r="A161" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="27" thickBot="1">
+      <c r="D161" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="14" thickBot="1">
       <c r="A162" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="27" thickBot="1">
+      <c r="D162" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="14" thickBot="1">
       <c r="A163" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="14" thickBot="1">
+      <c r="D163" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="14" thickBot="1">
       <c r="A164" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="14" thickBot="1">
+      <c r="D164" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="14" thickBot="1">
       <c r="A165" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="14" thickBot="1">
+      <c r="D165" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="14" thickBot="1">
       <c r="A166" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="14" thickBot="1">
+      <c r="A167" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B167" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="14" thickBot="1">
-      <c r="A167" s="1" t="s">
+      <c r="D167" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="14" thickBot="1">
+      <c r="A168" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C167" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="14" thickBot="1">
-      <c r="A168" s="1" t="s">
+      <c r="C168" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="14" thickBot="1">
+      <c r="A169" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="14" thickBot="1">
-      <c r="A169" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="B169" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="27" thickBot="1">
+      <c r="D169" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="14" thickBot="1">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="40" thickBot="1">
+      <c r="D170" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14" thickBot="1">
       <c r="A171" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="14" thickBot="1">
+      <c r="A172" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="14" thickBot="1">
-      <c r="A172" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="14" thickBot="1">
+        <v>364</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14" thickBot="1">
       <c r="A173" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="53" thickBot="1">
+      <c r="D173" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="14" thickBot="1">
       <c r="A174" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="27" thickBot="1">
+      <c r="D174" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="14" thickBot="1">
       <c r="A175" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="14" thickBot="1">
+      <c r="A176" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="14" thickBot="1">
-      <c r="A176" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>57</v>
@@ -3631,21 +7486,51 @@
       <c r="C176" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="14" thickBot="1">
+      <c r="D176" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="14" thickBot="1">
       <c r="A177" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="14" thickBot="1">
+      <c r="A178" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="40" thickBot="1">
-      <c r="A178" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>191</v>
@@ -3653,21 +7538,51 @@
       <c r="C178" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="14" thickBot="1">
+      <c r="D178" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="14" thickBot="1">
       <c r="A179" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="14" thickBot="1">
+      <c r="D179" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="14" thickBot="1">
       <c r="A180" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>23</v>
@@ -3675,21 +7590,51 @@
       <c r="C180" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="27" thickBot="1">
+      <c r="D180" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="14" thickBot="1">
       <c r="A181" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="14" thickBot="1">
+      <c r="D181" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="14" thickBot="1">
       <c r="A182" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>67</v>
@@ -3697,21 +7642,51 @@
       <c r="C182" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="14" thickBot="1">
+      <c r="D182" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="14" thickBot="1">
       <c r="A183" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="14" thickBot="1">
+      <c r="D183" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="14" thickBot="1">
       <c r="A184" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>89</v>
@@ -3719,43 +7694,103 @@
       <c r="C184" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="40" thickBot="1">
+      <c r="D184" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="14" thickBot="1">
       <c r="A185" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="79" thickBot="1">
-      <c r="A186" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="14" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="53" thickBot="1">
+      <c r="D186" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="14" thickBot="1">
       <c r="A187" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="40" thickBot="1">
-      <c r="A188" s="1" t="s">
-        <v>389</v>
+        <v>255</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="14" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>29</v>
@@ -3763,93 +7798,228 @@
       <c r="C188" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="14" thickBot="1">
+      <c r="D188" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="14" thickBot="1">
       <c r="A189" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="27" thickBot="1">
+        <v>312</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="14" thickBot="1">
       <c r="A190" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="14" thickBot="1">
+      <c r="D190" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="14" thickBot="1">
       <c r="A191" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="53" thickBot="1">
+      <c r="D191" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="14" thickBot="1">
       <c r="A192" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="14" thickBot="1">
+        <v>198</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="14" thickBot="1">
       <c r="A193" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="14" thickBot="1">
+        <v>394</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="14" thickBot="1">
       <c r="A194" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="14" thickBot="1">
+        <v>224</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="14" thickBot="1">
       <c r="A195" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="14" thickBot="1">
+      <c r="D195" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="14" thickBot="1">
       <c r="A196" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3859,9 +8029,13 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId3"/>
+    <hyperlink ref="E1" r:id="rId4"/>
+    <hyperlink ref="F1" r:id="rId5"/>
+    <hyperlink ref="G1" r:id="rId6"/>
+    <hyperlink ref="H1" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
